--- a/demo.xlsx
+++ b/demo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>學校</t>
   </si>
@@ -92,9 +92,6 @@
     <t>戶口遷入日期</t>
   </si>
   <si>
-    <t>學生身份別</t>
-  </si>
-  <si>
     <t>班級性質</t>
   </si>
   <si>
@@ -165,72 +162,6 @@
   </si>
   <si>
     <t>通訊地址</t>
-  </si>
-  <si>
-    <t>父親姓名</t>
-  </si>
-  <si>
-    <t>與父親關係</t>
-  </si>
-  <si>
-    <t>父親存歿</t>
-  </si>
-  <si>
-    <t>父親職業別</t>
-  </si>
-  <si>
-    <t>父親職稱</t>
-  </si>
-  <si>
-    <t>父親服務單位</t>
-  </si>
-  <si>
-    <t>父親出生年</t>
-  </si>
-  <si>
-    <t>父親電話公</t>
-  </si>
-  <si>
-    <t>父親電話宅</t>
-  </si>
-  <si>
-    <t>父親行動電話</t>
-  </si>
-  <si>
-    <t>父親電子郵件</t>
-  </si>
-  <si>
-    <t>母親姓名</t>
-  </si>
-  <si>
-    <t>與母親關係</t>
-  </si>
-  <si>
-    <t>母親存歿</t>
-  </si>
-  <si>
-    <t>母親職業別</t>
-  </si>
-  <si>
-    <t>母親職稱</t>
-  </si>
-  <si>
-    <t>母親服務單位</t>
-  </si>
-  <si>
-    <t>母親出生年</t>
-  </si>
-  <si>
-    <t>母親電話公</t>
-  </si>
-  <si>
-    <t>母親電話宅</t>
-  </si>
-  <si>
-    <t>母親行動電話</t>
-  </si>
-  <si>
-    <t>母親電子郵件</t>
   </si>
   <si>
     <t>監護人姓名</t>
@@ -280,6 +211,72 @@
   <si>
     <t>XX國中X學年度第X學期X年級X班自訂欄位 共X筆</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家長1姓名</t>
+  </si>
+  <si>
+    <t>與家長1關係</t>
+  </si>
+  <si>
+    <t>家長1存歿</t>
+  </si>
+  <si>
+    <t>家長1職業別</t>
+  </si>
+  <si>
+    <t>家長1職稱</t>
+  </si>
+  <si>
+    <t>家長1服務單位</t>
+  </si>
+  <si>
+    <t>家長1出生年</t>
+  </si>
+  <si>
+    <t>家長1電話公</t>
+  </si>
+  <si>
+    <t>家長1電話宅</t>
+  </si>
+  <si>
+    <t>家長1行動電話</t>
+  </si>
+  <si>
+    <t>家長1電子郵件</t>
+  </si>
+  <si>
+    <t>家長2姓名</t>
+  </si>
+  <si>
+    <t>與家長2關係</t>
+  </si>
+  <si>
+    <t>家長2存歿</t>
+  </si>
+  <si>
+    <t>家長2職業別</t>
+  </si>
+  <si>
+    <t>家長2職稱</t>
+  </si>
+  <si>
+    <t>家長2服務單位</t>
+  </si>
+  <si>
+    <t>家長2出生年</t>
+  </si>
+  <si>
+    <t>家長2電話公</t>
+  </si>
+  <si>
+    <t>家長2電話宅</t>
+  </si>
+  <si>
+    <t>家長2行動電話</t>
+  </si>
+  <si>
+    <t>家長2電子郵件</t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -336,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -359,26 +356,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,9 +376,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,7 +661,7 @@
   <dimension ref="A1:CF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -705,65 +686,67 @@
     <col min="21" max="21" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.25" style="3" customWidth="1"/>
     <col min="23" max="23" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="3" customWidth="1"/>
-    <col min="25" max="26" width="10.25" style="3" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="10.25" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="3" customWidth="1"/>
     <col min="27" max="27" width="14.125" style="3" customWidth="1"/>
     <col min="28" max="28" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.25" style="3" customWidth="1"/>
-    <col min="30" max="30" width="8.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="11" style="3" customWidth="1"/>
     <col min="31" max="31" width="10.25" style="3" customWidth="1"/>
-    <col min="32" max="33" width="8.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="8.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.125" style="3" customWidth="1"/>
     <col min="34" max="34" width="12.25" style="3" customWidth="1"/>
-    <col min="35" max="35" width="8.5" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.375" style="3" customWidth="1"/>
     <col min="36" max="36" width="12.25" style="3" customWidth="1"/>
     <col min="37" max="37" width="8.5" style="3" customWidth="1"/>
     <col min="38" max="38" width="6.75" style="3" customWidth="1"/>
-    <col min="39" max="39" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.25" style="3" customWidth="1"/>
-    <col min="42" max="42" width="8.5" style="3" customWidth="1"/>
+    <col min="39" max="39" width="10.25" style="3" customWidth="1"/>
+    <col min="40" max="41" width="12.25" style="3" customWidth="1"/>
+    <col min="42" max="42" width="12.375" style="3" customWidth="1"/>
     <col min="43" max="43" width="12.25" style="3" customWidth="1"/>
     <col min="44" max="44" width="8.5" style="3" customWidth="1"/>
     <col min="45" max="45" width="6.75" style="3" customWidth="1"/>
-    <col min="46" max="46" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.125" style="3" customWidth="1"/>
     <col min="47" max="47" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5" style="3" customWidth="1"/>
+    <col min="48" max="48" width="11.125" style="3" customWidth="1"/>
     <col min="49" max="49" width="10.25" style="3" customWidth="1"/>
-    <col min="50" max="50" width="8.5" style="3" customWidth="1"/>
+    <col min="50" max="50" width="12.625" style="3" customWidth="1"/>
     <col min="51" max="51" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.75" style="3" customWidth="1"/>
     <col min="53" max="53" width="12.25" style="3" customWidth="1"/>
     <col min="54" max="54" width="10.25" style="3" customWidth="1"/>
     <col min="55" max="55" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.25" style="3" customWidth="1"/>
+    <col min="56" max="56" width="14" style="3" customWidth="1"/>
     <col min="57" max="58" width="12.25" style="3" customWidth="1"/>
-    <col min="59" max="59" width="8.5" style="3" customWidth="1"/>
+    <col min="59" max="59" width="10.75" style="3" customWidth="1"/>
     <col min="60" max="60" width="10.25" style="3" customWidth="1"/>
-    <col min="61" max="61" width="8.5" style="3" customWidth="1"/>
+    <col min="61" max="61" width="11.5" style="3" customWidth="1"/>
     <col min="62" max="62" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.5" style="3" customWidth="1"/>
     <col min="64" max="64" width="12.25" style="3" customWidth="1"/>
     <col min="65" max="65" width="10.25" style="3" customWidth="1"/>
     <col min="66" max="66" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.25" style="3" customWidth="1"/>
+    <col min="67" max="67" width="13.375" style="3" customWidth="1"/>
     <col min="68" max="69" width="12.25" style="3" customWidth="1"/>
-    <col min="70" max="70" width="10.25" style="3" customWidth="1"/>
+    <col min="70" max="70" width="13.875" style="3" customWidth="1"/>
     <col min="71" max="71" width="12.25" style="3" customWidth="1"/>
     <col min="72" max="72" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.25" style="3" customWidth="1"/>
     <col min="74" max="74" width="14.125" style="3" customWidth="1"/>
     <col min="75" max="75" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.25" style="3" customWidth="1"/>
+    <col min="76" max="76" width="15.75" style="3" customWidth="1"/>
     <col min="77" max="78" width="14.125" style="3" customWidth="1"/>
-    <col min="79" max="79" width="10.25" style="3" customWidth="1"/>
-    <col min="80" max="82" width="12.25" style="3" customWidth="1"/>
+    <col min="79" max="79" width="13.625" style="3" customWidth="1"/>
+    <col min="80" max="81" width="12.25" style="3" customWidth="1"/>
+    <col min="82" max="82" width="15.5" style="3" customWidth="1"/>
     <col min="83" max="84" width="14.125" style="3" customWidth="1"/>
     <col min="85" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -849,258 +832,255 @@
       <c r="CE1" s="2"/>
       <c r="CF1" s="2"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="BR2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="BS2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="BT2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BU2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="BV2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BW2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BX2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BY2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="CA2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="CB2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="CC2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="CD2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="CE2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF2" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
